--- a/medicine/Enfance/Kurt_Wiese/Kurt_Wiese.xlsx
+++ b/medicine/Enfance/Kurt_Wiese/Kurt_Wiese.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kurt Wiese, né le 22 avril 1887 et mort le 27 mai 1974[1], est un illustrateur de livres américain d'origine allemande. Wiese a écrit et illustré 20 livres pour enfants et en a illustré 300 autres pour divers auteurs.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kurt Wiese, né le 22 avril 1887 et mort le 27 mai 1974, est un illustrateur de livres américain d'origine allemande. Wiese a écrit et illustré 20 livres pour enfants et en a illustré 300 autres pour divers auteurs.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Wiese est né à Minden, en province de Westphalie. Il aspire à devenir artiste mais est découragé par sa communauté[1].
-Il vit et voyage en Chine pendant six ans[2] vendant des marchandises dans sa jeunesse. Au début de la Première Guerre mondiale, il est capturé par les Japonais et remis aux Britanniques. Il passe cinq ans en prison, années qu'il passera essentiellement en Australie, où sa fascination pour la vie animale l'incite à recommencer à dessiner[3]. Après sa libération à la fin de la guerre, Wiese retourne en Allemagne mais l'économie est si mauvaise qu'il déménage au Brésil[1].
-Il y commence sa carrière d'illustrateur et, en 1927, il emménage aux États-Unis. Son premier succès critique fut avec les illustrations de Bambi de Felix Salten en 1929[1]. En 1930, il épousa Gertrude Hansen, avec qui il vit dans une ferme à Kingwood Township, dans le New Jersey[1]. Il travaille avec le maître graveur allemand Theodore Cuno de Germantown, en Pennsylvanie pour créer certaines de ses lithographies.
-Il meurt à Idell (Kingwood Township) le 27 mai 1974[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wiese est né à Minden, en province de Westphalie. Il aspire à devenir artiste mais est découragé par sa communauté.
+Il vit et voyage en Chine pendant six ans vendant des marchandises dans sa jeunesse. Au début de la Première Guerre mondiale, il est capturé par les Japonais et remis aux Britanniques. Il passe cinq ans en prison, années qu'il passera essentiellement en Australie, où sa fascination pour la vie animale l'incite à recommencer à dessiner. Après sa libération à la fin de la guerre, Wiese retourne en Allemagne mais l'économie est si mauvaise qu'il déménage au Brésil.
+Il y commence sa carrière d'illustrateur et, en 1927, il emménage aux États-Unis. Son premier succès critique fut avec les illustrations de Bambi de Felix Salten en 1929. En 1930, il épousa Gertrude Hansen, avec qui il vit dans une ferme à Kingwood Township, dans le New Jersey. Il travaille avec le maître graveur allemand Theodore Cuno de Germantown, en Pennsylvanie pour créer certaines de ses lithographies.
+Il meurt à Idell (Kingwood Township) le 27 mai 1974.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1933 : Médaille Newbery pour Young Fu of the Upper Yangtze (illustrateur).
 1936 : Newbery Honor Honk the Moose, Li Lun, Lad of Courage et Daughter of the Mountains (illustrateur).
@@ -578,15 +594,86 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Liste non exhaustive
-Scénario et illustrations
-(en) You Can Write Chinese, Viking, 1945, livre d'imagesCaldecott Honor
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste non exhaustive
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Kurt_Wiese</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kurt_Wiese</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Scénario et illustrations</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) You Can Write Chinese, Viking, 1945, livre d'imagesCaldecott Honor
 (en) Fish in the Air, Viking, 1948, livre d'imagesCaldecott Honor
-(en) Happy Easter, Viking, 1952, livre d'images
-Illustrations
-Bambi, l'histoire d'une vie dans les bois (Bambi, A Life in the Woods), de 1923 par Felix Salten
+(en) Happy Easter, Viking, 1952, livre d'images</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Kurt_Wiese</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kurt_Wiese</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Illustrations</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Bambi, l'histoire d'une vie dans les bois (Bambi, A Life in the Woods), de 1923 par Felix Salten
 Série Freddy the Pig de Walter R. Brooks (26 volumes, de 1927 à 1958)
 Poodle-oodle of Doodle Farm, Lawton et Ruth Mackall, 1929
 (en) Felix Salten, The Hound of Florence, Simon &amp; Schuster, 1930
